--- a/data/限售股解禁公司明细-20210909.xlsx
+++ b/data/限售股解禁公司明细-20210909.xlsx
@@ -5,22 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\限售股分析\stock_restrict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\限售股分析\RestrictStockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D98B4-1433-4E53-8FCC-73949979B985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22D39EB-186D-43F5-B5E1-CF0D0EDFE36D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="聚合分析" sheetId="4" r:id="rId3"/>
+    <sheet name="6880911.SH" sheetId="9" r:id="rId4"/>
+    <sheet name="688559.SH" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
   <si>
     <t/>
   </si>
@@ -188,16 +192,113 @@
   </si>
   <si>
     <t>金盘科技</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>门类</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>首发股份类型</t>
+  </si>
+  <si>
+    <t>变动前</t>
+  </si>
+  <si>
+    <t>变动后</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>持股数量（万股）</t>
+  </si>
+  <si>
+    <t>持股比例％</t>
+  </si>
+  <si>
+    <t>股东名称</t>
+  </si>
+  <si>
+    <t>周劲松</t>
+  </si>
+  <si>
+    <t>上海凯宝药业股份有限公司</t>
+  </si>
+  <si>
+    <t>上海杉施业WI里合伙企业</t>
+  </si>
+  <si>
+    <t>上海贤昱投资中心（有限合伙）</t>
+  </si>
+  <si>
+    <t>曾美桦</t>
+  </si>
+  <si>
+    <t>李峰</t>
+  </si>
+  <si>
+    <t>李端</t>
+  </si>
+  <si>
+    <t>李循</t>
+  </si>
+  <si>
+    <t>上海宜羡健康管理咨询中心</t>
+  </si>
+  <si>
+    <t>上海谊兴企业管理合伙企业</t>
+  </si>
+  <si>
+    <t>鞍山市海康企业管理服务中心(有限合伙)</t>
+  </si>
+  <si>
+    <t>深圳市招银一号创新创业投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>深圳市海目星投资管理中心(有限合伙)</t>
+  </si>
+  <si>
+    <t>深圳市深海创投投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>深圳市蓝思基金管理有限公司-深圳市国信蓝思壹号投资基金合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>北京君联成业股权投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>深圳市同方汇金股权投资基金管理有限公司</t>
+  </si>
+  <si>
+    <t>聂水斌</t>
+  </si>
+  <si>
+    <t>深圳市慧悦成长投资基金企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>深圳市润土投资管理有限公司-厦门宇鑫润土投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>持股数量(股)</t>
+  </si>
+  <si>
+    <t>占总股本比例(%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -208,28 +309,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB1C1C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -274,38 +434,102 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBB1C1C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,6 +539,3276 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>聚合分析!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-97D4-4896-A6FD-1072EC36BDE6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-97D4-4896-A6FD-1072EC36BDE6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-97D4-4896-A6FD-1072EC36BDE6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-97D4-4896-A6FD-1072EC36BDE6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-97D4-4896-A6FD-1072EC36BDE6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-97D4-4896-A6FD-1072EC36BDE6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>聚合分析!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>工业</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>信息技术</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>材料</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>医疗保健</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>可选消费</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日常消费</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>聚合分析!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3001-4673-8C34-9A48A7CFA521}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+              <a:t>解禁股份类型分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>聚合分析!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FB7D-4D41-80A6-F89CE2FED0FB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB7D-4D41-80A6-F89CE2FED0FB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FB7D-4D41-80A6-F89CE2FED0FB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FB7D-4D41-80A6-F89CE2FED0FB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>聚合分析!$P$2:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>定向增发机构配售股份</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>股权激励限售股份</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>首发一般股份,首发机构配售股份</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>首发原股东限售股份</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>聚合分析!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB7D-4D41-80A6-F89CE2FED0FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>流通量分析</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>聚合分析!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总股本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>聚合分析!$J$5:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>凯撒文化</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>唐人神</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>硅宝科技</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>精研科技</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>汇隆新材</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>中粮工科</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>乐惠国际</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>山东玻纤</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>菜百股份</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>上海谊众-U</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>深科达</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>海目星</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>金盘科技</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>聚合分析!$K$5:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>95666.506599999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120601.7542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39113.019999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13865.086300000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51227.424500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12070.134400000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77777.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69B1-40B3-B54A-15E3EA9F62B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>聚合分析!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>流通A股</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>聚合分析!$J$5:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>凯撒文化</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>唐人神</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>硅宝科技</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>精研科技</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>汇隆新材</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>中粮工科</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>乐惠国际</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>山东玻纤</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>菜百股份</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>上海谊众-U</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>深科达</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>海目星</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>金盘科技</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>聚合分析!$L$5:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>95598.589800000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118390.3077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27344.176200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10675.018599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2589.0054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9573.7209000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12070.134400000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23629.8639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7777.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2413.3915999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1722.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12647.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3618.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69B1-40B3-B54A-15E3EA9F62B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="501586735"/>
+        <c:axId val="501590479"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>聚合分析!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>占比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>聚合分析!$J$5:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>凯撒文化</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>唐人神</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>硅宝科技</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>精研科技</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>汇隆新材</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>中粮工科</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>乐惠国际</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>山东玻纤</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>菜百股份</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>上海谊众-U</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>深科达</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>海目星</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>金盘科技</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>聚合分析!$M$5:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.99929006710484403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98166323106434561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69910674757408153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76992081902872822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2370884065934066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18688663335007208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47259727800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10000002571428498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22810884688090738</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63239374999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4999999999999992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69B1-40B3-B54A-15E3EA9F62B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="501573007"/>
+        <c:axId val="501583407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="501586735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501590479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501590479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501586735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="501583407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501573007"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="501573007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="501583407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC3B477-A582-4097-91AF-9BCB9C99F6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E1F552-3715-4017-BA25-66A3F17C06C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>578303</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>864053</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>183241</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA85D75-8BD3-4B17-B23D-167B384879FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,16 +4133,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.7890625" bestFit="1" customWidth="1"/>
@@ -665,744 +4159,1832 @@
     <col min="16" max="16" width="7.95703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="20">
         <v>44448</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="21">
         <v>14292.063399999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="21">
         <v>111478.09451999998</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="21">
         <v>24.094134442668448</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="21">
         <v>95666.506599999993</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H3" s="21">
         <v>81306.526400000002</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I3" s="21">
         <v>84.98954262013369</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J3" s="21">
         <v>95666.506599999993</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3" s="21">
         <v>95598.589800000002</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L3" s="21">
         <v>99.929006710484416</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P3" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="20">
         <v>44448</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="21">
         <v>22693.995999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="21">
         <v>138206.43563999998</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="21">
         <v>-9.1856922588204846</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="21">
         <v>120601.7542</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="21">
         <v>95696.311700000006</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="21">
         <v>79.349021359425635</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="21">
         <v>120601.7542</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="21">
         <v>118390.3077</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L4" s="21">
         <v>98.166323106434547</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P4" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="20">
         <v>44448</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="21">
         <v>151.47999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="21">
         <v>3437.0812000000001</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21">
         <v>39113.019999999997</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="21">
         <v>27192.696200000002</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I5" s="21">
         <v>69.523386841517237</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="21">
         <v>39113.019999999997</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K5" s="21">
         <v>27344.176200000002</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L5" s="21">
         <v>69.91067475740816</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P5" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="20">
         <v>44448</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="21">
         <v>26.905200000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="21">
         <v>944.37252000000001</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21">
         <v>13865.086300000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="21">
         <v>10648.1134</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="21">
         <v>76.798031902621474</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="21">
         <v>13865.086300000001</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="21">
         <v>10675.018599999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L6" s="21">
         <v>76.992081902872812</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P6" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="20">
         <v>44448</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="21">
         <v>2589.0054</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="21">
         <v>65734.847106000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="21">
         <v>216.18929016189293</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="21">
         <v>10920</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="21">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I7" s="21">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="21">
         <v>10920</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K7" s="21">
         <v>2589.0054</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L7" s="21">
         <v>23.708840659340659</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P7" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="20">
         <v>44448</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="21">
         <v>9573.7209000000003</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="21">
         <v>130202.60424</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="21">
         <v>283.0985915492958</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="21">
         <v>51227.424500000001</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="21">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I8" s="21">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="21">
         <v>51227.424500000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="21">
         <v>9573.7209000000003</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L8" s="21">
         <v>18.68866333500721</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="20">
         <v>44448</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="21">
         <v>1640.1343999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="21">
         <v>63883.234880000004</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="21">
         <v>53.18103178932558</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="21">
         <v>12070.134400000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H9" s="21">
         <v>10430</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I9" s="21">
         <v>86.411631008847749</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="21">
         <v>12070.134400000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="21">
         <v>12070.134400000001</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L9" s="21">
         <v>100.00000000000001</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P9" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="20">
         <v>44448</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="21">
         <v>13629.8639</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="21">
         <v>237159.63185999999</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
         <v>50000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="21">
         <v>10000</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="21">
         <v>20</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="21">
         <v>50000</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="21">
         <v>23629.8639</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="21">
         <v>47.2597278</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P10" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="20">
         <v>44448</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="21">
         <v>7777.78</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="21">
         <v>112000.03199999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="21">
         <v>44.000000000000007</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="21">
         <v>77777.78</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="21">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I11" s="21">
         <v>0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="21">
         <v>77777.78</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="21">
         <v>7777.78</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="21">
         <v>10.000002571428498</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="20">
         <v>44448</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="21">
         <v>2413.3915999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="21">
         <v>118232.05448400001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="21">
         <v>28.58267716535433</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="21">
         <v>10580</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="21">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="21">
         <v>0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="21">
         <v>10580</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="21">
         <v>2413.3915999999999</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="21">
         <v>22.810884688090738</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P12" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="20">
         <v>44448</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="21">
         <v>72.769400000000005</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="21">
         <v>2722.3032539999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="21">
         <v>126.86476652516679</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="21">
         <v>8104</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="21">
         <v>1649.3306</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="21">
         <v>20.352055774925962</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="21">
         <v>8104</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K13" s="21">
         <v>1722.1</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L13" s="21">
         <v>21.25</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P13" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="20">
         <v>44448</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="21">
         <v>7897.875</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="21">
         <v>427906.86749999999</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21">
         <v>20000</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="21">
         <v>4750</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I14" s="21">
         <v>23.75</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="21">
         <v>20000</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K14" s="21">
         <v>12647.875</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L14" s="21">
         <v>63.239375000000003</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P14" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="20">
         <v>44448</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="21">
         <v>180.37129999999999</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="21">
         <v>3787.7972999999997</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="21">
         <v>107.92079207920793</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="21">
         <v>42570</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="21">
         <v>3438.0787</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I15" s="21">
         <v>8.0762948085506228</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="21">
         <v>42570</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="21">
         <v>3618.45</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L15" s="21">
         <v>8.5</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P15" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849E6AAC-DB74-48C4-9918-3F213EE13866}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="A2:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.2890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.20703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6">
+        <v>14292.063399999999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>111478.09451999998</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8">
+        <v>22693.995999999999</v>
+      </c>
+      <c r="E3" s="8">
+        <v>138206.43563999998</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6">
+        <v>151.47999999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3437.0812000000001</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8">
+        <v>26.905200000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>944.37252000000001</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2589.0054</v>
+      </c>
+      <c r="E6" s="6">
+        <v>65734.847106000001</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9573.7209000000003</v>
+      </c>
+      <c r="E7" s="8">
+        <v>130202.60424</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1640.1343999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>63883.234880000004</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8">
+        <v>13629.8639</v>
+      </c>
+      <c r="E9" s="8">
+        <v>237159.63185999999</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7777.78</v>
+      </c>
+      <c r="E10" s="6">
+        <v>112000.03199999999</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2413.3915999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>118232.05448400001</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6">
+        <v>72.769400000000005</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2722.3032539999999</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7897.875</v>
+      </c>
+      <c r="E13" s="8">
+        <v>427906.86749999999</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6">
+        <v>180.37129999999999</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3787.7972999999997</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0411C2E8-C591-4ED9-B6B7-BBBB06E4873D}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="1" max="2" width="4.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.20703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="16.25" x14ac:dyDescent="0.8">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.25" x14ac:dyDescent="0.8">
+      <c r="A2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>3</v>
+      </c>
+      <c r="R2" s="15">
+        <f>Q2/SUM(Q2:Q5)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.25" x14ac:dyDescent="0.8">
+      <c r="P3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>2</v>
+      </c>
+      <c r="R3" s="15">
+        <f>Q3/SUM(Q2:Q5)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.25" x14ac:dyDescent="0.8">
+      <c r="J4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>6</v>
+      </c>
+      <c r="R4" s="15">
+        <f>Q4/SUM(Q2:Q5)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.25" x14ac:dyDescent="0.8">
+      <c r="I5" s="9"/>
+      <c r="J5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="21">
+        <v>95666.506599999993</v>
+      </c>
+      <c r="L5" s="21">
+        <v>95598.589800000002</v>
+      </c>
+      <c r="M5" s="24">
+        <f>L5/K5</f>
+        <v>0.99929006710484403</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>2</v>
+      </c>
+      <c r="R5" s="15">
+        <f>Q5/SUM(Q2:Q5)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="I6" s="9"/>
+      <c r="J6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="21">
+        <v>120601.7542</v>
+      </c>
+      <c r="L6" s="21">
+        <v>118390.3077</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" ref="M6:M17" si="0">L6/K6</f>
+        <v>0.98166323106434561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="I7" s="9"/>
+      <c r="J7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="21">
+        <v>39113.019999999997</v>
+      </c>
+      <c r="L7" s="21">
+        <v>27344.176200000002</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.69910674757408153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="I8" s="9"/>
+      <c r="J8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="21">
+        <v>13865.086300000001</v>
+      </c>
+      <c r="L8" s="21">
+        <v>10675.018599999999</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.76992081902872822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="I9" s="9"/>
+      <c r="J9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="21">
+        <v>10920</v>
+      </c>
+      <c r="L9" s="21">
+        <v>2589.0054</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.2370884065934066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="I10" s="9"/>
+      <c r="J10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="21">
+        <v>51227.424500000001</v>
+      </c>
+      <c r="L10" s="21">
+        <v>9573.7209000000003</v>
+      </c>
+      <c r="M10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.18688663335007208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="I11" s="9"/>
+      <c r="J11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="21">
+        <v>12070.134400000001</v>
+      </c>
+      <c r="L11" s="21">
+        <v>12070.134400000001</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="J12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="21">
+        <v>50000</v>
+      </c>
+      <c r="L12" s="21">
+        <v>23629.8639</v>
+      </c>
+      <c r="M12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.47259727800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="J13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="21">
+        <v>77777.78</v>
+      </c>
+      <c r="L13" s="21">
+        <v>7777.78</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.10000002571428498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="J14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="21">
+        <v>10580</v>
+      </c>
+      <c r="L14" s="21">
+        <v>2413.3915999999999</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22810884688090738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="J15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="21">
+        <v>8104</v>
+      </c>
+      <c r="L15" s="21">
+        <v>1722.1</v>
+      </c>
+      <c r="M15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="J16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="21">
+        <v>20000</v>
+      </c>
+      <c r="L16" s="21">
+        <v>12647.875</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="0"/>
+        <v>0.63239374999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.8">
+      <c r="J17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="21">
+        <v>42570</v>
+      </c>
+      <c r="L17" s="21">
+        <v>3618.45</v>
+      </c>
+      <c r="M17" s="24">
+        <f t="shared" si="0"/>
+        <v>8.4999999999999992E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I6:J11">
+    <sortCondition descending="1" ref="J5:J11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17D6BFD-8ABF-43EE-AF13-D005950EE2FA}">
+  <dimension ref="C1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="3" max="3" width="26.45703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="26">
+        <v>2063.3000000000002</v>
+      </c>
+      <c r="E2" s="26">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1375</v>
+      </c>
+      <c r="E3" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="26">
+        <v>500</v>
+      </c>
+      <c r="E4" s="26">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="27">
+        <v>430</v>
+      </c>
+      <c r="E5" s="27">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="26">
+        <v>395.8</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="27">
+        <v>360</v>
+      </c>
+      <c r="E7" s="27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C8" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="26">
+        <v>358.1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="27">
+        <v>350</v>
+      </c>
+      <c r="E9" s="27">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="26">
+        <v>345.8</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.8">
+      <c r="C11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="27">
+        <v>250</v>
+      </c>
+      <c r="E11" s="27">
+        <v>2.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D5553C-E166-4E5A-AA20-10F0FB15A64C}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="1" max="1" width="66.2890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="26">
+        <v>39095550</v>
+      </c>
+      <c r="C2" s="26">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="27">
+        <v>18085050</v>
+      </c>
+      <c r="C3" s="27">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="26">
+        <v>14291250</v>
+      </c>
+      <c r="C4" s="26">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="27">
+        <v>12234000</v>
+      </c>
+      <c r="C5" s="27">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="26">
+        <v>10765950</v>
+      </c>
+      <c r="C6" s="26">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="27">
+        <v>5319150</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="26">
+        <v>4893600</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="27">
+        <v>4202100</v>
+      </c>
+      <c r="C9" s="27">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3852750</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="27">
+        <v>3670200</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1.84</v>
       </c>
     </row>
   </sheetData>
